--- a/biology/Zoologie/Assamiidae/Assamiidae.xlsx
+++ b/biology/Zoologie/Assamiidae/Assamiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Assamiidae sont une famille d'opilions laniatores. On connaît plus de 460 espèces dans 253 genres.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent en Afrique, en Asie et en Océanie.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Catalogue of Opiliones (03/04/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Catalogue of Opiliones (03/04/2023) :
 Aburistinae Roewer, 1935
 Aburista Roewer, 1935
 Aburistella Lawrence, 1947
@@ -840,7 +856,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Sørensen en 1884.
 </t>
@@ -871,7 +889,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sørensen, 1884 : « Opiliones Laniatores (Gonyleptides W. S. Olim) Musei Hauniensis. » Naturhistorisk Tidsskrift, vol. 14, p. 555–646.</t>
         </is>
